--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\10-31\data\20231031_superdelivery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\10-31\data\20231102_superdelivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF4F83F-63D3-4A25-8131-043E6271AE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C7FB3-AEC0-462A-82F9-576136C33B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="615" windowWidth="21600" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="420" windowWidth="25125" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>規劃時間</t>
   </si>
@@ -40,29 +40,39 @@
     <t>127520840434805,103482326003878,17841461742288388,17841456036806884</t>
   </si>
   <si>
-    <t>C:/Users/user/Desktop/10-31/data/20231031_superdelivery\【日本直送】 OMNES  メンズ　ふわ軽静電気防止　マイクロフリースパンツ　2023秋冬新作  男士蓬鬆輕薄防靜電微絨長褲 2023 秋冬新款  八色入</t>
-  </si>
-  <si>
-    <t>https://shopage.s3.amazonaws.com/media/f854/615273998674_29567590827170513294.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_60376645994529596215.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_77666221561243252646.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/user/Desktop/10-31/data/20231031_superdelivery\【日本直送】 SAFARI ROOKIE  イージーパンツ メンズ ストレッチ 裏起毛 スーパーストレッチパンツ チノパン カジュアル ゴルフ ビジネス  Easy Pants 男士彈性羊毛襯裡超彈性褲子奇諾褲休閒高爾夫商務  八色入</t>
-  </si>
-  <si>
-    <t>https://shopage.s3.amazonaws.com/media/f854/615273998674_94201058986672985450.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_54378725694341996175.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_66840199919010171874.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/user/Desktop/10-31/data/20231031_superdelivery\【日本直送】 improves　インプローブス  【SIDEWAYSTANCE】デニムケミカルワイドカーゴパンツ  [SIDEWAYSTANCE] 牛仔化纖寬幅工裝褲  二色入</t>
-  </si>
-  <si>
-    <t>https://shopage.s3.amazonaws.com/media/f854/615273998674_75483551238368134853.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_42444143257935562217.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_21411498476000819587.jpg</t>
+    <t>C:/Users/user/Desktop/10-31/data/20231102_superdelivery\【日本直送】 QUASH(クワッシュ)(QUBJM)  飛びヒゲ刺繍スウェット（長袖スウェット）【2023年秋冬物新作商品】  飛須刺繡衛衣（長袖衛衣）【2023秋冬新品】  一色入</t>
+  </si>
+  <si>
+    <t>https://shopage.s3.amazonaws.com/media/f854/615273998674_08082744085599597628.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_54978859891964370052.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_66281112341504638319.jpg</t>
+  </si>
+  <si>
+    <t>C:/Users/user/Desktop/10-31/data/20231102_superdelivery\【日本直送】 BARCEDOS  【2023秋冬】＜選べる9タイプ＞ロゴプリント 長袖Tシャツ  【2023秋冬】9款可選Logo印花長袖T卹  九色入</t>
+  </si>
+  <si>
+    <t>https://shopage.s3.amazonaws.com/media/f854/615273998674_56914594841313592411.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_58518174693109314285.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_41273738738784776379.jpg</t>
+  </si>
+  <si>
+    <t>C:/Users/user/Desktop/10-31/data/20231102_superdelivery\【日本直送】 OMNES  メンズ　ダブルガーゼ　ポケット付き長袖Tシャツ　2023秋冬新作  男款雙層紗布長袖 T 卹（附口袋）2023 秋冬新款  十色入</t>
+  </si>
+  <si>
+    <t>https://shopage.s3.amazonaws.com/media/f854/615273998674_53345774561473980927.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_99552404725753039171.jpg,https://shopage.s3.amazonaws.com/media/f854/615273998674_42660133096556431775.jpg</t>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +86,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -405,15 +423,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="259.42578125" customWidth="1"/>
+    <col min="3" max="3" width="220.42578125" customWidth="1"/>
     <col min="4" max="4" width="367.42578125" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
   </cols>
@@ -435,9 +453,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45230.857638888891</v>
+        <v>45232.992361111108</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -448,10 +466,13 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45230.85833333333</v>
+        <v>45232.992361111108</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -462,10 +483,13 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45230.859027777777</v>
+        <v>45232.992361111108</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -475,6 +499,9 @@
       </c>
       <c r="D4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\10-31\data\20231105_superdelivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAEA0B2-7339-4C1B-A982-834ACE45667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2257E3CD-D409-4FB5-95C8-CB422E37D7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16297" yWindow="-5903" windowWidth="16395" windowHeight="28396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8666,8 +8666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="18" spans="1:5" ht="274.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45248.895833333336</v>
+        <v>45249.895833333336</v>
       </c>
       <c r="B18" t="s">
         <v>139</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="43" spans="1:5" ht="273.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45248.8125</v>
+        <v>45249.8125</v>
       </c>
       <c r="B43" t="s">
         <v>139</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\10-31\data\20231105_superdelivery\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94B5CC2-40B3-4B6E-B77A-9DE69EEAE7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14070" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1017,46 +1011,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1064,45 +1386,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1112,9 +1714,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1399,28 +1998,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="72.28515625" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" customWidth="1"/>
-    <col min="3" max="3" width="280.42578125" customWidth="1"/>
-    <col min="4" max="4" width="367.42578125" customWidth="1"/>
-    <col min="5" max="5" width="664.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="72.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="100.425" customWidth="1"/>
+    <col min="3" max="3" width="280.425" customWidth="1"/>
+    <col min="4" max="4" width="367.425" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1433,13 +2032,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45249.895833333343</v>
+    <row r="2" ht="271.5" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>45249.8958333333</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1454,9 +2053,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45262.895833333343</v>
+    <row r="3" ht="256.5" customHeight="1" spans="1:5">
+      <c r="A3" s="2">
+        <v>45262.8958333333</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1471,9 +2070,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="273" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45268.645833333343</v>
+    <row r="4" ht="273" customHeight="1" spans="1:5">
+      <c r="A4" s="2">
+        <v>45268.6458333333</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1488,9 +2087,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45260.895833333343</v>
+    <row r="5" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A5" s="2">
+        <v>45260.8958333333</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1505,9 +2104,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45250.895833333343</v>
+    <row r="6" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A6" s="2">
+        <v>45250.8958333333</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1522,9 +2121,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="258" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45263.895833333343</v>
+    <row r="7" ht="258" customHeight="1" spans="1:5">
+      <c r="A7" s="2">
+        <v>45263.8958333333</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1539,9 +2138,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45260.895833333343</v>
+    <row r="8" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A8" s="2">
+        <v>45260.8958333333</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1556,9 +2155,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45251.729166666657</v>
+    <row r="9" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A9" s="2">
+        <v>45251.7291666667</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1573,9 +2172,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45252.895833333343</v>
+    <row r="10" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A10" s="2">
+        <v>45252.8958333333</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1590,9 +2189,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45255.729166666657</v>
+    <row r="11" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A11" s="2">
+        <v>45255.7291666667</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1607,9 +2206,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45253.895833333343</v>
+    <row r="12" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A12" s="2">
+        <v>45253.8958333333</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1624,8 +2223,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A13" s="2">
         <v>45254.4375</v>
       </c>
       <c r="B13" t="s">
@@ -1641,9 +2240,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45256.895833333343</v>
+    <row r="14" ht="291" customHeight="1" spans="1:5">
+      <c r="A14" s="2">
+        <v>45256.8958333333</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1658,8 +2257,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="258" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" ht="258" customHeight="1" spans="1:5">
+      <c r="A15" s="2">
         <v>45268.4375</v>
       </c>
       <c r="B15" t="s">
@@ -1675,9 +2274,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45259.895833333343</v>
+    <row r="16" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A16" s="2">
+        <v>45259.8958333333</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1692,9 +2291,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45253.5625</v>
+    <row r="17" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A17" s="2">
+        <v>45253.6909722222</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1709,9 +2308,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45249.895833333343</v>
+    <row r="18" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A18" s="2">
+        <v>45249.8958333333</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1726,9 +2325,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45262.729166666657</v>
+    <row r="19" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A19" s="2">
+        <v>45262.7291666667</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1743,8 +2342,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" ht="291" customHeight="1" spans="1:5">
+      <c r="A20" s="2">
         <v>45267.5625</v>
       </c>
       <c r="B20" t="s">
@@ -1760,9 +2359,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45254.895833333343</v>
+    <row r="21" ht="291" customHeight="1" spans="1:5">
+      <c r="A21" s="2">
+        <v>45254.8958333333</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1777,8 +2376,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A22" s="2">
         <v>45263.4375</v>
       </c>
       <c r="B22" t="s">
@@ -1794,9 +2393,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45264.895833333343</v>
+    <row r="23" ht="290.25" customHeight="1" spans="1:5">
+      <c r="A23" s="2">
+        <v>45264.8958333333</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1811,8 +2410,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" ht="291" customHeight="1" spans="1:5">
+      <c r="A24" s="2">
         <v>45261.4375</v>
       </c>
       <c r="B24" t="s">
@@ -1828,9 +2427,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45257.895833333343</v>
+    <row r="25" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A25" s="2">
+        <v>45257.8958333333</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1845,9 +2444,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45266.895833333343</v>
+    <row r="26" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A26" s="2">
+        <v>45266.8958333333</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1862,8 +2461,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A27" s="2">
         <v>45257.5625</v>
       </c>
       <c r="B27" t="s">
@@ -1879,9 +2478,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>45258.520833333343</v>
+    <row r="28" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A28" s="2">
+        <v>45258.5208333333</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1896,9 +2495,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>45262.520833333343</v>
+    <row r="29" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A29" s="2">
+        <v>45262.5208333333</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1913,9 +2512,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>45261.895833333343</v>
+    <row r="30" ht="290.25" customHeight="1" spans="1:5">
+      <c r="A30" s="2">
+        <v>45261.8958333333</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1930,9 +2529,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>45253.895833333343</v>
+    <row r="31" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A31" s="2">
+        <v>45253.8958333333</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1947,8 +2546,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" ht="290.25" customHeight="1" spans="1:5">
+      <c r="A32" s="2">
         <v>45266.4375</v>
       </c>
       <c r="B32" t="s">
@@ -1964,9 +2563,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>45267.895833333343</v>
+    <row r="33" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A33" s="2">
+        <v>45267.8958333333</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1981,9 +2580,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>45264.895833333343</v>
+    <row r="34" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A34" s="2">
+        <v>45264.8958333333</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1998,9 +2597,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>45258.729166666657</v>
+    <row r="35" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A35" s="2">
+        <v>45258.7291666667</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -2015,8 +2614,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="306.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" ht="306.75" customHeight="1" spans="1:5">
+      <c r="A36" s="2">
         <v>45249.5625</v>
       </c>
       <c r="B36" t="s">
@@ -2032,9 +2631,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>45265.520833333343</v>
+    <row r="37" ht="290.25" customHeight="1" spans="1:5">
+      <c r="A37" s="2">
+        <v>45265.5208333333</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -2049,8 +2648,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" ht="290.25" customHeight="1" spans="1:5">
+      <c r="A38" s="2">
         <v>45259.4375</v>
       </c>
       <c r="B38" t="s">
@@ -2066,8 +2665,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A39" s="2">
         <v>45256.4375</v>
       </c>
       <c r="B39" t="s">
@@ -2083,9 +2682,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>45251.520833333343</v>
+    <row r="40" ht="291" customHeight="1" spans="1:5">
+      <c r="A40" s="2">
+        <v>45251.5208333333</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -2100,9 +2699,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>45252.729166666657</v>
+    <row r="41" ht="290.25" customHeight="1" spans="1:5">
+      <c r="A41" s="2">
+        <v>45252.7291666667</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -2117,9 +2716,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>45265.729166666657</v>
+    <row r="42" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A42" s="2">
+        <v>45265.7291666667</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -2134,8 +2733,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A43" s="2">
         <v>45249.8125</v>
       </c>
       <c r="B43" t="s">
@@ -2151,8 +2750,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" ht="273.75" customHeight="1" spans="1:5">
+      <c r="A44" s="2">
         <v>45252.4375</v>
       </c>
       <c r="B44" t="s">
@@ -2168,8 +2767,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" ht="274.5" customHeight="1" spans="1:5">
+      <c r="A45" s="2">
         <v>45260.5625</v>
       </c>
       <c r="B45" t="s">
@@ -2185,9 +2784,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45255.520833333343</v>
+    <row r="46" ht="291" customHeight="1" spans="1:5">
+      <c r="A46" s="2">
+        <v>45255.5208333333</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -2203,14 +2802,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9379D0-278F-458B-97D4-5F787BF60EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14070" windowHeight="6195"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="141">
   <si>
     <t>規劃時間</t>
   </si>
@@ -1006,23 +1012,33 @@
 #853seller #hklocalbrand #hkig #hkigshop #hks
 #hkigershop, #brands #igseller #clothing
 #clothingbrand and #igshop</t>
+  </si>
+  <si>
+    <r>
+      <t>,103482326003878,,17841456036806884</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,17841461742288388,127520840434805</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1030,355 +1046,40 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1386,251 +1087,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1643,62 +1102,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1714,6 +1133,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1998,28 +1420,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.2833333333333" customWidth="1"/>
-    <col min="2" max="2" width="100.425" customWidth="1"/>
-    <col min="3" max="3" width="280.425" customWidth="1"/>
-    <col min="4" max="4" width="367.425" customWidth="1"/>
+    <col min="1" max="1" width="72.28515625" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" customWidth="1"/>
+    <col min="3" max="3" width="280.42578125" customWidth="1"/>
+    <col min="4" max="4" width="367.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2036,9 +1458,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="271.5" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45249.8958333333</v>
+        <v>45273.895833333336</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -2053,9 +1475,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="256.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>45262.8958333333</v>
+        <v>45262.895833333299</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2070,9 +1492,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="273" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="273" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>45268.6458333333</v>
+        <v>45268.645833333299</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2083,13 +1505,13 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="274.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45260.8958333333</v>
+        <v>45260.895833333299</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2100,13 +1522,13 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="273.75" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45250.8958333333</v>
+        <v>45250.895833333299</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -2117,13 +1539,13 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="258" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="258" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45263.8958333333</v>
+        <v>45263.895833333299</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -2134,13 +1556,13 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="273.75" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45260.8958333333</v>
+        <v>45260.895833333299</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2151,13 +1573,13 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" ht="274.5" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45251.7291666667</v>
+        <v>45251.729166666701</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -2168,13 +1590,13 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="273.75" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45252.8958333333</v>
+        <v>45252.895833333299</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -2185,13 +1607,13 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="273.75" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45255.7291666667</v>
+        <v>45255.729166666701</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -2202,16 +1624,16 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="273.75" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45253.8958333333</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
+        <v>45253.916666666664</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
@@ -2219,11 +1641,11 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" ht="274.5" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45254.4375</v>
       </c>
@@ -2236,13 +1658,13 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="291" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45256.8958333333</v>
+        <v>45256.895833333299</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -2253,11 +1675,11 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="258" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="258" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45268.4375</v>
       </c>
@@ -2270,13 +1692,13 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="274.5" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45259.8958333333</v>
+        <v>45259.895833333299</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -2287,13 +1709,13 @@
       <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" ht="274.5" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45253.6909722222</v>
+        <v>45253.690972222197</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -2304,13 +1726,13 @@
       <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" ht="274.5" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45249.8958333333</v>
+        <v>45273.895833333336</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -2321,13 +1743,13 @@
       <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" ht="273.75" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45262.7291666667</v>
+        <v>45262.729166666701</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -2338,11 +1760,11 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" ht="291" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45267.5625</v>
       </c>
@@ -2355,13 +1777,13 @@
       <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" ht="291" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45254.8958333333</v>
+        <v>45254.895833333299</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -2372,11 +1794,11 @@
       <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="274.5" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45263.4375</v>
       </c>
@@ -2389,13 +1811,13 @@
       <c r="D22" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" ht="290.25" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45264.8958333333</v>
+        <v>45264.895833333299</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2406,11 +1828,11 @@
       <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" ht="291" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45261.4375</v>
       </c>
@@ -2423,13 +1845,13 @@
       <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" ht="274.5" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45257.8958333333</v>
+        <v>45257.895833333299</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -2440,13 +1862,13 @@
       <c r="D25" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" ht="274.5" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45266.8958333333</v>
+        <v>45266.895833333299</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -2457,11 +1879,11 @@
       <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" ht="273.75" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45257.5625</v>
       </c>
@@ -2474,13 +1896,13 @@
       <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" ht="273.75" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45258.5208333333</v>
+        <v>45258.520833333299</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -2491,13 +1913,13 @@
       <c r="D28" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" ht="274.5" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45262.5208333333</v>
+        <v>45262.520833333299</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -2508,13 +1930,13 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" ht="290.25" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45261.8958333333</v>
+        <v>45261.895833333299</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -2525,13 +1947,13 @@
       <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" ht="274.5" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45253.8958333333</v>
+        <v>45253.895833333299</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -2542,11 +1964,11 @@
       <c r="D31" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" ht="290.25" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45266.4375</v>
       </c>
@@ -2559,13 +1981,13 @@
       <c r="D32" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" ht="273.75" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45267.8958333333</v>
+        <v>45267.895833333299</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -2576,13 +1998,13 @@
       <c r="D33" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" ht="273.75" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45264.8958333333</v>
+        <v>45264.895833333299</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -2593,13 +2015,13 @@
       <c r="D34" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" ht="274.5" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45258.7291666667</v>
+        <v>45258.729166666701</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -2610,13 +2032,13 @@
       <c r="D35" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" ht="306.75" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="306.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45249.5625</v>
+        <v>45273.5625</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -2627,13 +2049,13 @@
       <c r="D36" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" ht="290.25" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45265.5208333333</v>
+        <v>45265.520833333299</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -2644,11 +2066,11 @@
       <c r="D37" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" ht="290.25" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45259.4375</v>
       </c>
@@ -2661,11 +2083,11 @@
       <c r="D38" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" ht="274.5" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45256.4375</v>
       </c>
@@ -2678,13 +2100,13 @@
       <c r="D39" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" ht="291" customHeight="1" spans="1:5">
+    <row r="40" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45251.5208333333</v>
+        <v>45251.520833333299</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -2695,13 +2117,13 @@
       <c r="D40" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" ht="290.25" customHeight="1" spans="1:5">
+    <row r="41" spans="1:5" ht="290.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45252.7291666667</v>
+        <v>45252.729166666701</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -2712,13 +2134,13 @@
       <c r="D41" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" ht="274.5" customHeight="1" spans="1:5">
+    <row r="42" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45265.7291666667</v>
+        <v>45265.729166666701</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -2729,13 +2151,13 @@
       <c r="D42" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" ht="273.75" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45249.8125</v>
+        <v>45273.8125</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -2746,11 +2168,11 @@
       <c r="D43" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" ht="273.75" customHeight="1" spans="1:5">
+    <row r="44" spans="1:5" ht="273.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45252.4375</v>
       </c>
@@ -2763,11 +2185,11 @@
       <c r="D44" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" ht="274.5" customHeight="1" spans="1:5">
+    <row r="45" spans="1:5" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45260.5625</v>
       </c>
@@ -2780,13 +2202,13 @@
       <c r="D45" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" ht="291" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5" ht="291" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45255.5208333333</v>
+        <v>45255.520833333299</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -2797,19 +2219,19 @@
       <c r="D46" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C$1:C$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D$1:D$1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>